--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1240.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1240.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
+        <v>1.207776069641113</v>
+      </c>
+      <c r="B1">
         <v>-1</v>
       </c>
-      <c r="B1">
-        <v>2.182589763542195</v>
-      </c>
       <c r="C1">
-        <v>1.378124458752368</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.169651753966028</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.127123537730254</v>
+        <v>1.202883839607239</v>
       </c>
     </row>
   </sheetData>
